--- a/data/sus-vs-sink/MED_ETNP2017_susvsink_SPIDER_10/susvsink-peptide-metagomics-input-nomod.xlsx
+++ b/data/sus-vs-sink/MED_ETNP2017_susvsink_SPIDER_10/susvsink-peptide-metagomics-input-nomod.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/data/sus-vs-sink/MED_ETNP2017_susvsink_SPIDER_10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF3D6571-505F-B64F-A0B2-41958801B5E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3649D273-772E-D242-97C1-C1182B51C6C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2660" windowWidth="21620" windowHeight="9680"/>
+    <workbookView xWindow="3760" yWindow="4360" windowWidth="21620" windowHeight="9680"/>
   </bookViews>
   <sheets>
     <sheet name="susvsink-peptide-metagomics-inp" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -10265,21 +10272,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3346"/>
+  <dimension ref="A1:D3346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1">
+        <f>SUM(B:B)</f>
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10287,7 +10300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -10295,7 +10308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10303,7 +10316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -10311,7 +10324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10319,7 +10332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10327,7 +10340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10335,7 +10348,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -10343,7 +10356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10351,7 +10364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -10359,7 +10372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -10367,7 +10380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -10375,7 +10388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10383,7 +10396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -10391,7 +10404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>14</v>
       </c>
